--- a/CEPAL/Produto 03/df_metrics_cat_boost.xlsx
+++ b/CEPAL/Produto 03/df_metrics_cat_boost.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\pibmunic\CEPAL\Produto 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABDFFB8-6E07-4FF6-8D42-4226EA93695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D12CE-5E95-4679-88FB-546E4DD1A522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cat_boost" sheetId="1" r:id="rId1"/>
+    <sheet name="eml" sheetId="2" r:id="rId2"/>
+    <sheet name="xgboost" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>ANO</t>
   </si>
@@ -55,7 +57,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -537,7 +539,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -668,7 +670,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0421295525370506E-2"/>
+          <c:y val="0.13930516431924883"/>
+          <c:w val="0.9074236188754351"/>
+          <c:h val="0.56943284906288127"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1731,364 +1743,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-DF75-4751-B5A0-0C7BEE14228D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>False positive rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cat_boost!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$H$2:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.316455696202531</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20353982300884901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.233082706766917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23448275862068901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16746411483253501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25786163522012501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.20588235294117599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22477064220183399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.27835051546391698</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.209523809523809</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16504854368932001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.105677892918825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.2621259029927697E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.2036213220947401E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.8344797307185706E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.3201888364343201E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.3277591973244104E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DF75-4751-B5A0-0C7BEE14228D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>True positive rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cat_boost!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$I$2:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89393939393939303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94285714285714195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82758620689655105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92307692307692302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88888888888888795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.891891891891891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86538461538461497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89830508474576198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88235294117647001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94545454545454499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.929824561403508</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.87804878048780399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74285714285714199</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.81857686040195499</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75376884422110502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77267637178051496</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.77491207502930803</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70107719928186696</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71784565916398702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DF75-4751-B5A0-0C7BEE14228D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,6 +1814,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2226,10 +1881,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10609637541530875"/>
-          <c:y val="0.75391371853166245"/>
-          <c:w val="0.80996233476857693"/>
-          <c:h val="0.22355107020073195"/>
+          <c:x val="6.5814401598591712E-2"/>
+          <c:y val="0.8515663006912868"/>
+          <c:w val="0.85024430858529387"/>
+          <c:h val="0.12589848804110751"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2245,7 +1900,2729 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Evolução da Métricas ELM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0421295525370506E-2"/>
+          <c:y val="0.13930516431924883"/>
+          <c:w val="0.9074236188754351"/>
+          <c:h val="0.56943284906288127"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.86842105263157898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82014388489208601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79289940828402306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79120879120879095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83908045977011403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78440366972477005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81176470588235194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80952380952380898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78169014084507005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76892430278884405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80478087649402297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81159420289855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88747606657175104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89471503817245601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.917846198745075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92244644947999099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91364611119828398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92521864041573298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.96212121212121204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.947265625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96285714285714197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82540375381929199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91797140912185105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90935672514619803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89375582479030702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93973132131026804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91642682016842503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93012302960399795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92602168473728097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91465773809523798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93597395550732498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92961672473867596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91262135922330101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94308166907299495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93833145530097695</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95143571378068303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95418132797716804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94294433473247197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.956919026264755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KS Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.84848484848484795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80476190476190401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57442164993452605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75799863852961202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68525480367585601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69878844361602899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72662863452337101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68446860675834098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71568627450980304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74837364470391998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69017857142857097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72770844637366605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.716144018583043</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73786407766990203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80552651230511296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79528011945322896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82246535551580102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82796859046737004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80096437404929899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84558915570658899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89855072463768104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90410958904109595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61538461538461497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64646464646464596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63461538461538403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68181818181818099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69281045751633996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65217391304347805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63529411764705801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64634146341463405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59504132231404905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.568036185450433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54137664346480996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55067837190742197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54003267973856195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48615001556178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50224971878515101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.89393939393939303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94285714285714195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82758620689655105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88888888888888795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.891891891891891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86538461538461497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89830508474576198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88235294117647001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94545454545454499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.929824561403508</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87804878048780399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81857686040195499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75376884422110502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77267637178051496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77491207502930803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70107719928186696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71784565916398702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cat_boost!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cat_boost!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.95161290322580605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83783783783783705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86842105263157898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48979591836734598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51063829787234005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50793650793650702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49253731343283502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56382978723404198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51724137931034397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51485148514851398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49090909090909002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49532710280373798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60465116279069697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43492063492063399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42236524537409398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42777433353998701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41442006269592402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.372081943782753</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38624567474048399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B758-4D4B-916D-FABC9B73B14E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1624776431"/>
+        <c:axId val="1624787471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1624776431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624787471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624787471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624776431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5814401598591712E-2"/>
+          <c:y val="0.8515663006912868"/>
+          <c:w val="0.85024430858529387"/>
+          <c:h val="0.12589848804110751"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Evolução da Métricas XGBOOST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0421295525370506E-2"/>
+          <c:y val="0.13930516431924883"/>
+          <c:w val="0.9074236188754351"/>
+          <c:h val="0.56943284906288127"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.88157894699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81538461500000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62037036999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74100719400000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66863905300000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72527472500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73946360200000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69266055000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72549019599999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73626373599999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73943661999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72111553799999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72509960200000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81884058000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88163385500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.882878618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.908288341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91669536500000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90485904100000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91482529899999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.91742424199999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89550781300000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72130074200000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82896528300000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82236842099999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81472507000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87371181499999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83354653000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82708573600000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84799833199999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84683779800000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86349249400000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85708478499999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.884188627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93231365399999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92831924200000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94314805199999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94910771299999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93637497000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.950460843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KS Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.73939393899999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70952380999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45351374900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69911504400000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57372598200000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62124883500000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64574898800000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52478413800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58823529399999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61534612200000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58869047600000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62986073399999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66608594700000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74868238600000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80434049799999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79637915699999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82887559300000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83332575600000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81021873499999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84728487600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.92913385800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88235294099999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50602409599999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53846153799999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54545454500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55844155799999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60818713499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53947368399999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.571428571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58888888900000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57831325300000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48120300799999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68354430399999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.542417916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50709838100000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50647821000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.516296741</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47412546999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48360655699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.893939394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85714285700000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72413793100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80769230800000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77777777800000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81081081099999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82692307700000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88135593199999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.803921569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87272727299999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88333333300000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84210526299999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78048780500000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77142857099999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77620858199999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73079684099999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72228443399999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75674091399999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73608617600000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.758842444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>xgboost!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>xgboost!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.96721311499999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81081081099999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38888888900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40384615400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.368421053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41095890400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42156862699999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46428571400000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40594059399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.424778761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44166666700000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44036697200000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34782608700000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61363636399999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41686114400000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.388253242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38996372400000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.391805766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34968017099999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.354887218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C31B-4B92-B616-03BF8396523A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1624776431"/>
+        <c:axId val="1624787471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1624776431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624787471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624787471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624776431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5814401598591712E-2"/>
+          <c:y val="0.8515663006912868"/>
+          <c:w val="0.85024430858529387"/>
+          <c:h val="0.12589848804110751"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2345,7 +4722,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2886,6 +6375,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080164C1-6478-4B89-9E84-90A51B04D571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D536835-0B8F-40DE-9CB4-5562403E6426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3201,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3852,4 +7427,1312 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B47FDB-89C8-484A-959E-E023C9783BDA}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2">
+        <v>0.88157894699999995</v>
+      </c>
+      <c r="C2">
+        <v>0.93484848499999995</v>
+      </c>
+      <c r="D2">
+        <v>0.79393939400000002</v>
+      </c>
+      <c r="E2">
+        <v>0.92913385800000003</v>
+      </c>
+      <c r="F2">
+        <v>0.893939394</v>
+      </c>
+      <c r="G2">
+        <v>0.96721311499999996</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.893939394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>0.70833333300000001</v>
+      </c>
+      <c r="C3">
+        <v>0.814453125</v>
+      </c>
+      <c r="D3">
+        <v>0.5625</v>
+      </c>
+      <c r="E3">
+        <v>0.79411764699999998</v>
+      </c>
+      <c r="F3">
+        <v>0.84375</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+      <c r="H3">
+        <v>0.5625</v>
+      </c>
+      <c r="I3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4">
+        <v>0.87692307700000005</v>
+      </c>
+      <c r="C4">
+        <v>0.91904761899999998</v>
+      </c>
+      <c r="D4">
+        <v>0.819047619</v>
+      </c>
+      <c r="E4">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="F4">
+        <v>0.91428571400000003</v>
+      </c>
+      <c r="G4">
+        <v>0.86486486500000004</v>
+      </c>
+      <c r="H4">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="I4">
+        <v>0.91428571400000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5">
+        <v>0.54629629599999996</v>
+      </c>
+      <c r="C5">
+        <v>0.67656045399999998</v>
+      </c>
+      <c r="D5">
+        <v>0.36621562600000002</v>
+      </c>
+      <c r="E5">
+        <v>0.47311828</v>
+      </c>
+      <c r="F5">
+        <v>0.75862068999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.34375</v>
+      </c>
+      <c r="H5">
+        <v>0.53164557000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.75862068999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6">
+        <v>0.79136690600000004</v>
+      </c>
+      <c r="C6">
+        <v>0.88359428200000001</v>
+      </c>
+      <c r="D6">
+        <v>0.72566371699999999</v>
+      </c>
+      <c r="E6">
+        <v>0.63291139200000002</v>
+      </c>
+      <c r="F6">
+        <v>0.96153846200000004</v>
+      </c>
+      <c r="G6">
+        <v>0.47169811299999997</v>
+      </c>
+      <c r="H6">
+        <v>0.24778761099999999</v>
+      </c>
+      <c r="I6">
+        <v>0.96153846200000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7">
+        <v>0.68047337299999999</v>
+      </c>
+      <c r="C7">
+        <v>0.83667502100000002</v>
+      </c>
+      <c r="D7">
+        <v>0.57477025900000001</v>
+      </c>
+      <c r="E7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="G7">
+        <v>0.39285714300000002</v>
+      </c>
+      <c r="H7">
+        <v>0.38345864699999999</v>
+      </c>
+      <c r="I7">
+        <v>0.91666666699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8">
+        <v>0.73076923100000002</v>
+      </c>
+      <c r="C8">
+        <v>0.86859273100000001</v>
+      </c>
+      <c r="D8">
+        <v>0.67064305700000004</v>
+      </c>
+      <c r="E8">
+        <v>0.58823529399999996</v>
+      </c>
+      <c r="F8">
+        <v>0.94594594600000004</v>
+      </c>
+      <c r="G8">
+        <v>0.42682926799999998</v>
+      </c>
+      <c r="H8">
+        <v>0.32413793099999999</v>
+      </c>
+      <c r="I8">
+        <v>0.94594594600000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9">
+        <v>0.67049808399999999</v>
+      </c>
+      <c r="C9">
+        <v>0.83391608399999995</v>
+      </c>
+      <c r="D9">
+        <v>0.56836584499999998</v>
+      </c>
+      <c r="E9">
+        <v>0.51685393300000004</v>
+      </c>
+      <c r="F9">
+        <v>0.88461538500000003</v>
+      </c>
+      <c r="G9">
+        <v>0.36507936499999999</v>
+      </c>
+      <c r="H9">
+        <v>0.38277512000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.88461538500000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>0.63761467900000002</v>
+      </c>
+      <c r="C10">
+        <v>0.80609743099999998</v>
+      </c>
+      <c r="D10">
+        <v>0.48736808399999998</v>
+      </c>
+      <c r="E10">
+        <v>0.55865921799999996</v>
+      </c>
+      <c r="F10">
+        <v>0.84745762700000005</v>
+      </c>
+      <c r="G10">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="H10">
+        <v>0.44025157199999998</v>
+      </c>
+      <c r="I10">
+        <v>0.84745762700000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>0.678431373</v>
+      </c>
+      <c r="C11">
+        <v>0.82295271000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.52941176499999998</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.803921569</v>
+      </c>
+      <c r="G11">
+        <v>0.36283185800000001</v>
+      </c>
+      <c r="H11">
+        <v>0.35294117600000002</v>
+      </c>
+      <c r="I11">
+        <v>0.803921569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>0.743589744</v>
+      </c>
+      <c r="C12">
+        <v>0.84053377799999995</v>
+      </c>
+      <c r="D12">
+        <v>0.62910759000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.59302325600000005</v>
+      </c>
+      <c r="F12">
+        <v>0.92727272699999996</v>
+      </c>
+      <c r="G12">
+        <v>0.43589743600000003</v>
+      </c>
+      <c r="H12">
+        <v>0.30275229399999998</v>
+      </c>
+      <c r="I12">
+        <v>0.92727272699999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>0.69366197200000002</v>
+      </c>
+      <c r="C13">
+        <v>0.84650297600000002</v>
+      </c>
+      <c r="D13">
+        <v>0.55833333299999999</v>
+      </c>
+      <c r="E13">
+        <v>0.54450261799999999</v>
+      </c>
+      <c r="F13">
+        <v>0.86666666699999995</v>
+      </c>
+      <c r="G13">
+        <v>0.39694656499999997</v>
+      </c>
+      <c r="H13">
+        <v>0.352678571</v>
+      </c>
+      <c r="I13">
+        <v>0.86666666699999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>0.68924302800000004</v>
+      </c>
+      <c r="C14">
+        <v>0.84183396600000004</v>
+      </c>
+      <c r="D14">
+        <v>0.55968529600000005</v>
+      </c>
+      <c r="E14">
+        <v>0.56666666700000001</v>
+      </c>
+      <c r="F14">
+        <v>0.89473684200000003</v>
+      </c>
+      <c r="G14">
+        <v>0.41463414599999998</v>
+      </c>
+      <c r="H14">
+        <v>0.37113402099999998</v>
+      </c>
+      <c r="I14">
+        <v>0.89473684200000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>0.71314741000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.84355400700000005</v>
+      </c>
+      <c r="D15">
+        <v>0.55714285699999999</v>
+      </c>
+      <c r="E15">
+        <v>0.47826087</v>
+      </c>
+      <c r="F15">
+        <v>0.80487804900000004</v>
+      </c>
+      <c r="G15">
+        <v>0.34020618600000002</v>
+      </c>
+      <c r="H15">
+        <v>0.304761905</v>
+      </c>
+      <c r="I15">
+        <v>0.80487804900000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>0.77536231899999997</v>
+      </c>
+      <c r="C16">
+        <v>0.85436893199999997</v>
+      </c>
+      <c r="D16">
+        <v>0.68987517300000001</v>
+      </c>
+      <c r="E16">
+        <v>0.62650602399999999</v>
+      </c>
+      <c r="F16">
+        <v>0.74285714300000005</v>
+      </c>
+      <c r="G16">
+        <v>0.54166666699999999</v>
+      </c>
+      <c r="H16">
+        <v>0.21359223299999999</v>
+      </c>
+      <c r="I16">
+        <v>0.74285714300000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>0.85988511999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.90914090800000003</v>
+      </c>
+      <c r="D17">
+        <v>0.74778994700000001</v>
+      </c>
+      <c r="E17">
+        <v>0.504857738</v>
+      </c>
+      <c r="F17">
+        <v>0.79033134199999999</v>
+      </c>
+      <c r="G17">
+        <v>0.370889625</v>
+      </c>
+      <c r="H17">
+        <v>0.13320380000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.79033134199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18">
+        <v>0.86127715000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.91031194000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.75114645199999996</v>
+      </c>
+      <c r="E18">
+        <v>0.47088036100000003</v>
+      </c>
+      <c r="F18">
+        <v>0.74874371900000003</v>
+      </c>
+      <c r="G18">
+        <v>0.34343101700000001</v>
+      </c>
+      <c r="H18">
+        <v>0.12861197099999999</v>
+      </c>
+      <c r="I18">
+        <v>0.74874371900000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>0.89179921200000001</v>
+      </c>
+      <c r="C19">
+        <v>0.92527758900000001</v>
+      </c>
+      <c r="D19">
+        <v>0.78344519700000004</v>
+      </c>
+      <c r="E19">
+        <v>0.47467233399999997</v>
+      </c>
+      <c r="F19">
+        <v>0.750279955</v>
+      </c>
+      <c r="G19">
+        <v>0.34715025900000002</v>
+      </c>
+      <c r="H19">
+        <v>9.8337625999999997E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.750279955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
+        <v>0.90646738800000004</v>
+      </c>
+      <c r="C20">
+        <v>0.93487534400000005</v>
+      </c>
+      <c r="D20">
+        <v>0.80084438700000005</v>
+      </c>
+      <c r="E20">
+        <v>0.48696637700000001</v>
+      </c>
+      <c r="F20">
+        <v>0.75556858100000002</v>
+      </c>
+      <c r="G20">
+        <v>0.35925306600000001</v>
+      </c>
+      <c r="H20">
+        <v>8.4113858999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.75556858100000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21">
+        <v>0.89021392300000002</v>
+      </c>
+      <c r="C21">
+        <v>0.92266408600000005</v>
+      </c>
+      <c r="D21">
+        <v>0.78106575199999995</v>
+      </c>
+      <c r="E21">
+        <v>0.43861995199999998</v>
+      </c>
+      <c r="F21">
+        <v>0.73608617600000004</v>
+      </c>
+      <c r="G21">
+        <v>0.31238095199999999</v>
+      </c>
+      <c r="H21">
+        <v>0.100249931</v>
+      </c>
+      <c r="I21">
+        <v>0.73608617600000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22">
+        <v>0.89919303699999997</v>
+      </c>
+      <c r="C22">
+        <v>0.93455268899999999</v>
+      </c>
+      <c r="D22">
+        <v>0.81483731100000001</v>
+      </c>
+      <c r="E22">
+        <v>0.44226273999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.76045016099999996</v>
+      </c>
+      <c r="G22">
+        <v>0.31179960400000001</v>
+      </c>
+      <c r="H22">
+        <v>9.3110367999999999E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.76045016099999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC600C8-E587-4D12-881A-6FCF41F45635}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2">
+        <v>0.88157894699999995</v>
+      </c>
+      <c r="C2">
+        <v>0.91742424199999995</v>
+      </c>
+      <c r="D2">
+        <v>0.73939393899999994</v>
+      </c>
+      <c r="E2">
+        <v>0.92913385800000003</v>
+      </c>
+      <c r="F2">
+        <v>0.893939394</v>
+      </c>
+      <c r="G2">
+        <v>0.96721311499999996</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.893939394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="C3">
+        <v>0.89550781300000004</v>
+      </c>
+      <c r="D3">
+        <v>0.625</v>
+      </c>
+      <c r="E3">
+        <v>0.88235294099999995</v>
+      </c>
+      <c r="F3">
+        <v>0.9375</v>
+      </c>
+      <c r="G3">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="H3">
+        <v>0.375</v>
+      </c>
+      <c r="I3">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4">
+        <v>0.81538461500000003</v>
+      </c>
+      <c r="C4">
+        <v>0.92</v>
+      </c>
+      <c r="D4">
+        <v>0.70952380999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="F4">
+        <v>0.85714285700000004</v>
+      </c>
+      <c r="G4">
+        <v>0.81081081099999996</v>
+      </c>
+      <c r="H4">
+        <v>0.233333333</v>
+      </c>
+      <c r="I4">
+        <v>0.85714285700000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5">
+        <v>0.62037036999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.72130074200000005</v>
+      </c>
+      <c r="D5">
+        <v>0.45351374900000002</v>
+      </c>
+      <c r="E5">
+        <v>0.50602409599999998</v>
+      </c>
+      <c r="F5">
+        <v>0.72413793100000001</v>
+      </c>
+      <c r="G5">
+        <v>0.38888888900000002</v>
+      </c>
+      <c r="H5">
+        <v>0.41772151899999999</v>
+      </c>
+      <c r="I5">
+        <v>0.72413793100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6">
+        <v>0.74100719400000004</v>
+      </c>
+      <c r="C6">
+        <v>0.82896528300000005</v>
+      </c>
+      <c r="D6">
+        <v>0.69911504400000002</v>
+      </c>
+      <c r="E6">
+        <v>0.53846153799999996</v>
+      </c>
+      <c r="F6">
+        <v>0.80769230800000003</v>
+      </c>
+      <c r="G6">
+        <v>0.40384615400000001</v>
+      </c>
+      <c r="H6">
+        <v>0.27433628300000001</v>
+      </c>
+      <c r="I6">
+        <v>0.80769230800000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7">
+        <v>0.66863905300000004</v>
+      </c>
+      <c r="C7">
+        <v>0.82236842099999996</v>
+      </c>
+      <c r="D7">
+        <v>0.57372598200000002</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.77777777800000003</v>
+      </c>
+      <c r="G7">
+        <v>0.368421053</v>
+      </c>
+      <c r="H7">
+        <v>0.36090225599999998</v>
+      </c>
+      <c r="I7">
+        <v>0.77777777800000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8">
+        <v>0.72527472500000001</v>
+      </c>
+      <c r="C8">
+        <v>0.81472507000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.62124883500000005</v>
+      </c>
+      <c r="E8">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="F8">
+        <v>0.81081081099999996</v>
+      </c>
+      <c r="G8">
+        <v>0.41095890400000001</v>
+      </c>
+      <c r="H8">
+        <v>0.29655172400000002</v>
+      </c>
+      <c r="I8">
+        <v>0.81081081099999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9">
+        <v>0.73946360200000005</v>
+      </c>
+      <c r="C9">
+        <v>0.87371181499999995</v>
+      </c>
+      <c r="D9">
+        <v>0.64574898800000002</v>
+      </c>
+      <c r="E9">
+        <v>0.55844155799999995</v>
+      </c>
+      <c r="F9">
+        <v>0.82692307700000001</v>
+      </c>
+      <c r="G9">
+        <v>0.42156862699999997</v>
+      </c>
+      <c r="H9">
+        <v>0.28229665100000001</v>
+      </c>
+      <c r="I9">
+        <v>0.82692307700000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>0.69266055000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.83354653000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.52478413800000001</v>
+      </c>
+      <c r="E10">
+        <v>0.60818713499999999</v>
+      </c>
+      <c r="F10">
+        <v>0.88135593199999995</v>
+      </c>
+      <c r="G10">
+        <v>0.46428571400000002</v>
+      </c>
+      <c r="H10">
+        <v>0.37735849100000002</v>
+      </c>
+      <c r="I10">
+        <v>0.88135593199999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>0.72549019599999998</v>
+      </c>
+      <c r="C11">
+        <v>0.82708573600000002</v>
+      </c>
+      <c r="D11">
+        <v>0.58823529399999996</v>
+      </c>
+      <c r="E11">
+        <v>0.53947368399999995</v>
+      </c>
+      <c r="F11">
+        <v>0.803921569</v>
+      </c>
+      <c r="G11">
+        <v>0.40594059399999999</v>
+      </c>
+      <c r="H11">
+        <v>0.29411764699999998</v>
+      </c>
+      <c r="I11">
+        <v>0.803921569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>0.73626373599999995</v>
+      </c>
+      <c r="C12">
+        <v>0.84799833199999997</v>
+      </c>
+      <c r="D12">
+        <v>0.61534612200000005</v>
+      </c>
+      <c r="E12">
+        <v>0.571428571</v>
+      </c>
+      <c r="F12">
+        <v>0.87272727299999997</v>
+      </c>
+      <c r="G12">
+        <v>0.424778761</v>
+      </c>
+      <c r="H12">
+        <v>0.298165138</v>
+      </c>
+      <c r="I12">
+        <v>0.87272727299999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>0.73943661999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.84683779800000003</v>
+      </c>
+      <c r="D13">
+        <v>0.58869047600000002</v>
+      </c>
+      <c r="E13">
+        <v>0.58888888900000003</v>
+      </c>
+      <c r="F13">
+        <v>0.88333333300000005</v>
+      </c>
+      <c r="G13">
+        <v>0.44166666700000001</v>
+      </c>
+      <c r="H13">
+        <v>0.29910714300000002</v>
+      </c>
+      <c r="I13">
+        <v>0.88333333300000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>0.72111553799999994</v>
+      </c>
+      <c r="C14">
+        <v>0.86349249400000005</v>
+      </c>
+      <c r="D14">
+        <v>0.62986073399999998</v>
+      </c>
+      <c r="E14">
+        <v>0.57831325300000003</v>
+      </c>
+      <c r="F14">
+        <v>0.84210526299999999</v>
+      </c>
+      <c r="G14">
+        <v>0.44036697200000002</v>
+      </c>
+      <c r="H14">
+        <v>0.31443299000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.84210526299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>0.72509960200000001</v>
+      </c>
+      <c r="C15">
+        <v>0.85708478499999996</v>
+      </c>
+      <c r="D15">
+        <v>0.66608594700000001</v>
+      </c>
+      <c r="E15">
+        <v>0.48120300799999999</v>
+      </c>
+      <c r="F15">
+        <v>0.78048780500000003</v>
+      </c>
+      <c r="G15">
+        <v>0.34782608700000001</v>
+      </c>
+      <c r="H15">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="I15">
+        <v>0.78048780500000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>0.81884058000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.884188627</v>
+      </c>
+      <c r="D16">
+        <v>0.74868238600000003</v>
+      </c>
+      <c r="E16">
+        <v>0.68354430399999999</v>
+      </c>
+      <c r="F16">
+        <v>0.77142857099999995</v>
+      </c>
+      <c r="G16">
+        <v>0.61363636399999999</v>
+      </c>
+      <c r="H16">
+        <v>0.16504854399999999</v>
+      </c>
+      <c r="I16">
+        <v>0.77142857099999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>0.88163385500000002</v>
+      </c>
+      <c r="C17">
+        <v>0.93231365399999999</v>
+      </c>
+      <c r="D17">
+        <v>0.80434049799999996</v>
+      </c>
+      <c r="E17">
+        <v>0.542417916</v>
+      </c>
+      <c r="F17">
+        <v>0.77620858199999998</v>
+      </c>
+      <c r="G17">
+        <v>0.41686114400000002</v>
+      </c>
+      <c r="H17">
+        <v>0.10789076</v>
+      </c>
+      <c r="I17">
+        <v>0.77620858199999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18">
+        <v>0.882878618</v>
+      </c>
+      <c r="C18">
+        <v>0.92831924200000004</v>
+      </c>
+      <c r="D18">
+        <v>0.79637915699999995</v>
+      </c>
+      <c r="E18">
+        <v>0.50709838100000004</v>
+      </c>
+      <c r="F18">
+        <v>0.73079684099999997</v>
+      </c>
+      <c r="G18">
+        <v>0.388253242</v>
+      </c>
+      <c r="H18">
+        <v>0.103457172</v>
+      </c>
+      <c r="I18">
+        <v>0.73079684099999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>0.908288341</v>
+      </c>
+      <c r="C19">
+        <v>0.94314805199999996</v>
+      </c>
+      <c r="D19">
+        <v>0.82887559300000002</v>
+      </c>
+      <c r="E19">
+        <v>0.50647821000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.72228443399999998</v>
+      </c>
+      <c r="G19">
+        <v>0.38996372400000001</v>
+      </c>
+      <c r="H19">
+        <v>7.8748146000000005E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.72228443399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
+        <v>0.91669536500000004</v>
+      </c>
+      <c r="C20">
+        <v>0.94910771299999996</v>
+      </c>
+      <c r="D20">
+        <v>0.83332575600000003</v>
+      </c>
+      <c r="E20">
+        <v>0.516296741</v>
+      </c>
+      <c r="F20">
+        <v>0.75674091399999999</v>
+      </c>
+      <c r="G20">
+        <v>0.391805766</v>
+      </c>
+      <c r="H20">
+        <v>7.3320650000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.75674091399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21">
+        <v>0.90485904100000003</v>
+      </c>
+      <c r="C21">
+        <v>0.93637497000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.81021873499999997</v>
+      </c>
+      <c r="E21">
+        <v>0.47412546999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.73608617600000004</v>
+      </c>
+      <c r="G21">
+        <v>0.34968017099999998</v>
+      </c>
+      <c r="H21">
+        <v>8.4698695000000004E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.73608617600000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22">
+        <v>0.91482529899999998</v>
+      </c>
+      <c r="C22">
+        <v>0.950460843</v>
+      </c>
+      <c r="D22">
+        <v>0.84728487600000002</v>
+      </c>
+      <c r="E22">
+        <v>0.48360655699999999</v>
+      </c>
+      <c r="F22">
+        <v>0.758842444</v>
+      </c>
+      <c r="G22">
+        <v>0.354887218</v>
+      </c>
+      <c r="H22">
+        <v>7.6521739000000005E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.758842444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CEPAL/Produto 03/df_metrics_cat_boost.xlsx
+++ b/CEPAL/Produto 03/df_metrics_cat_boost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\pibmunic\CEPAL\Produto 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\pibmunic\CEPAL\Produto 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D12CE-5E95-4679-88FB-546E4DD1A522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173D043-ED85-4ADC-A66F-BFA8284C7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cat_boost" sheetId="1" r:id="rId1"/>
@@ -699,16 +699,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="91000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="88000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                    <a:alpha val="98000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -876,16 +902,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1053,16 +1091,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1232,14 +1280,31 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1409,8 +1474,12 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1586,14 +1655,24 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1754,6 +1833,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1624776431"/>
         <c:axId val="1624787471"/>
@@ -1787,7 +1867,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1848,16 +1928,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -2037,9 +2117,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0421295525370506E-2"/>
-          <c:y val="0.13930516431924883"/>
+          <c:y val="9.7288427181896397E-2"/>
           <c:w val="0.9074236188754351"/>
-          <c:h val="0.56943284906288127"/>
+          <c:h val="0.61144974525243179"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2050,11 +2130,590 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cat_boost!$B$1</c:f>
+              <c:f>eml!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="91000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="88000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                    <a:alpha val="98000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eml!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.88157894699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70833333300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87692307700000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54629629599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79136690600000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68047337299999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73076923100000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67049808399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63761467900000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.678431373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.743589744</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69366197200000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68924302800000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71314741000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77536231899999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85988511999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86127715000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89179921200000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90646738800000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89021392300000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89919303699999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CCB-4423-B561-B6493DD4ABEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eml!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eml!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.93484848499999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.814453125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91904761899999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67656045399999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88359428200000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83667502100000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86859273100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83391608399999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80609743099999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82295271000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84053377799999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84650297600000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84183396600000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84355400700000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85436893199999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90914090800000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91031194000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92527758900000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93487534400000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92266408600000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93455268899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CCB-4423-B561-B6493DD4ABEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eml!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KS Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eml!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.79393939400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.819047619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36621562600000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72566371699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57477025900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67064305700000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56836584499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48736808399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52941176499999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62910759000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55833333299999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55968529600000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55714285699999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68987517300000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74778994700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75114645199999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78344519700000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80084438700000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78106575199999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81483731100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CCB-4423-B561-B6493DD4ABEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eml!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2062,8 +2721,206 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eml!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eml!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.92913385800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79411764699999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888899999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47311828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63291139200000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58823529399999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51685393300000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55865921799999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59302325600000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54450261799999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56666666700000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47826087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62650602399999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.504857738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47088036100000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47467233399999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48696637700000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43861995199999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44226273999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CCB-4423-B561-B6493DD4ABEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>eml!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2145,72 +3002,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cat_boost!$B$2:$B$22</c:f>
+              <c:f>eml!$F$2:$F$22</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.86842105263157898</c:v>
+                  <c:v>0.893939394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85416666666666596</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89230769230769202</c:v>
+                  <c:v>0.91428571400000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72222222222222199</c:v>
+                  <c:v>0.75862068999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82014388489208601</c:v>
+                  <c:v>0.96153846200000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79289940828402306</c:v>
+                  <c:v>0.91666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79120879120879095</c:v>
+                  <c:v>0.94594594600000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83908045977011403</c:v>
+                  <c:v>0.88461538500000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78440366972477005</c:v>
+                  <c:v>0.84745762700000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81176470588235194</c:v>
+                  <c:v>0.803921569</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80952380952380898</c:v>
+                  <c:v>0.92727272699999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78169014084507005</c:v>
+                  <c:v>0.86666666699999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76892430278884405</c:v>
+                  <c:v>0.89473684200000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.80478087649402297</c:v>
+                  <c:v>0.80487804900000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81159420289855</c:v>
+                  <c:v>0.74285714300000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88747606657175104</c:v>
+                  <c:v>0.79033134199999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89471503817245601</c:v>
+                  <c:v>0.74874371900000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.917846198745075</c:v>
+                  <c:v>0.750279955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92244644947999099</c:v>
+                  <c:v>0.75556858100000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91364611119828398</c:v>
+                  <c:v>0.73608617600000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92521864041573298</c:v>
+                  <c:v>0.76045016099999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,20 +3075,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B758-4D4B-916D-FABC9B73B14E}"/>
+              <c16:uniqueId val="{00000004-8CCB-4423-B561-B6493DD4ABEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>cat_boost!$C$1</c:f>
+              <c:f>eml!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUC</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2239,14 +3096,24 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2322,72 +3189,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cat_boost!$C$2:$C$22</c:f>
+              <c:f>eml!$G$2:$G$22</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.96212121212121204</c:v>
+                  <c:v>0.96721311499999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.947265625</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96285714285714197</c:v>
+                  <c:v>0.86486486500000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82540375381929199</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91797140912185105</c:v>
+                  <c:v>0.47169811299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90935672514619803</c:v>
+                  <c:v>0.39285714300000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89375582479030702</c:v>
+                  <c:v>0.42682926799999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93973132131026804</c:v>
+                  <c:v>0.36507936499999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91642682016842503</c:v>
+                  <c:v>0.41666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93012302960399795</c:v>
+                  <c:v>0.36283185800000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92602168473728097</c:v>
+                  <c:v>0.43589743600000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91465773809523798</c:v>
+                  <c:v>0.39694656499999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93597395550732498</c:v>
+                  <c:v>0.41463414599999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92961672473867596</c:v>
+                  <c:v>0.34020618600000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91262135922330101</c:v>
+                  <c:v>0.54166666699999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94308166907299495</c:v>
+                  <c:v>0.370889625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93833145530097695</c:v>
+                  <c:v>0.34343101700000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95143571378068303</c:v>
+                  <c:v>0.34715025900000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95418132797716804</c:v>
+                  <c:v>0.35925306600000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94294433473247197</c:v>
+                  <c:v>0.31238095199999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.956919026264755</c:v>
+                  <c:v>0.31179960400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,715 +3262,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B758-4D4B-916D-FABC9B73B14E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KS Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.84848484848484795</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80476190476190401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57442164993452605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75799863852961202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68525480367585601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69878844361602899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72662863452337101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68446860675834098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.71568627450980304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.74837364470391998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.69017857142857097</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.72770844637366605</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.716144018583043</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73786407766990203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80552651230511296</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.79528011945322896</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.82246535551580102</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82796859046737004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.80096437404929899</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.84558915570658899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B758-4D4B-916D-FABC9B73B14E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1 score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$E$2:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.921875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89855072463768104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90410958904109595</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61538461538461497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65753424657534199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64646464646464596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63461538461538403</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68181818181818099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69281045751633996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65217391304347805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.63529411764705801</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64634146341463405</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.59504132231404905</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.568036185450433</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.54137664346480996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.55067837190742197</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.54003267973856195</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.48615001556178</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.50224971878515101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B758-4D4B-916D-FABC9B73B14E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$F$2:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.89393939393939303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94285714285714195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82758620689655105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92307692307692302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88888888888888795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.891891891891891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86538461538461497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89830508474576198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88235294117647001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94545454545454499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.929824561403508</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.87804878048780399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74285714285714199</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.81857686040195499</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75376884422110502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77267637178051496</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.77491207502930803</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70107719928186696</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71784565916398702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B758-4D4B-916D-FABC9B73B14E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cat_boost!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cat_boost!$G$2:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0000_-;\-* #,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.95161290322580605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83783783783783705</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86842105263157898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48979591836734598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51063829787234005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50793650793650702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49253731343283502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56382978723404198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51724137931034397</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.51485148514851398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49090909090909002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49532710280373798</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60465116279069697</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.43492063492063399</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42236524537409398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.42777433353998701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.41442006269592402</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.372081943782753</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.38624567474048399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B758-4D4B-916D-FABC9B73B14E}"/>
+              <c16:uniqueId val="{00000005-8CCB-4423-B561-B6493DD4ABEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3115,6 +3274,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1624776431"/>
         <c:axId val="1624787471"/>
@@ -3148,7 +3308,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3209,16 +3369,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -3242,10 +3402,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5814401598591712E-2"/>
-          <c:y val="0.8515663006912868"/>
-          <c:w val="0.85024430858529387"/>
-          <c:h val="0.12589848804110751"/>
+          <c:x val="8.1640381005786744E-2"/>
+          <c:y val="0.84036171949094596"/>
+          <c:w val="0.8708818741870914"/>
+          <c:h val="0.12311519883543968"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3398,9 +3558,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0421295525370506E-2"/>
-          <c:y val="0.13930516431924883"/>
+          <c:y val="9.7288427181896397E-2"/>
           <c:w val="0.9074236188754351"/>
-          <c:h val="0.56943284906288127"/>
+          <c:h val="0.61144974525243179"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3421,20 +3581,46 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="91000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="88000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                    <a:alpha val="98000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3579,7 +3765,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000000-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3598,20 +3784,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3756,7 +3954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000001-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3775,20 +3973,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3933,7 +4141,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000002-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3954,18 +4162,35 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4110,7 +4335,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000003-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4131,8 +4356,12 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4142,7 +4371,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4287,7 +4516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000004-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4308,18 +4537,28 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>eml!$A$2:$A$22</c:f>
+              <c:f>xgboost!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4464,7 +4703,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C31B-4B92-B616-03BF8396523A}"/>
+              <c16:uniqueId val="{00000005-0C9C-44D6-A8F0-7A06AC6E7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4476,6 +4715,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1624776431"/>
         <c:axId val="1624787471"/>
@@ -4509,7 +4749,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4570,16 +4810,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -4603,10 +4843,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5814401598591712E-2"/>
-          <c:y val="0.8515663006912868"/>
-          <c:w val="0.85024430858529387"/>
-          <c:h val="0.12589848804110751"/>
+          <c:x val="8.1640381005786744E-2"/>
+          <c:y val="0.84036171949094596"/>
+          <c:w val="0.8708818741870914"/>
+          <c:h val="0.12311519883543968"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6395,23 +6635,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080164C1-6478-4B89-9E84-90A51B04D571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B599BF9E-D3B6-4BDA-A77C-B7AB99255E5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6439,22 +6679,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D536835-0B8F-40DE-9CB4-5562403E6426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E821EE-D419-47BC-AC8B-A8DBBDA9AE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6776,8 +7016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B47FDB-89C8-484A-959E-E023C9783BDA}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,7 +8328,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
